--- a/Codes/BNN_Best_Models_on_all_cases.xlsx
+++ b/Codes/BNN_Best_Models_on_all_cases.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NS-ML on Nuclear Matter -KB\Codes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -35,9 +39,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>PC (Lam_1.6 vs Ksym(0) (True,Pred)</t>
-  </si>
-  <si>
     <t>sigma_1_NSM</t>
   </si>
   <si>
@@ -90,28 +91,32 @@
   </si>
   <si>
     <t>(0.8474816359913843, 0.7935741726927082)</t>
+  </si>
+  <si>
+    <t>PC (Lam_1.4 vs Ksym(0) (True,Pred)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,26 +131,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -433,20 +455,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,274 +484,274 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>35.52474906482815</v>
+      </c>
+      <c r="C2">
+        <v>5.8146917308717967E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.15077675048491759</v>
+      </c>
+      <c r="E2">
+        <v>61.530458097307758</v>
+      </c>
+      <c r="F2">
+        <v>0.77999763922296239</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>0.73</v>
+      </c>
+      <c r="I2">
+        <v>0.76</v>
+      </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
+      <c r="K2">
+        <v>0.96</v>
+      </c>
+      <c r="L2">
+        <v>0.97</v>
+      </c>
+      <c r="M2">
+        <v>0.96</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="n">
-        <v>35.52474906482815</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05814691730871797</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1507767504849176</v>
-      </c>
-      <c r="E2" t="n">
-        <v>61.53045809730776</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7799976392229624</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="B3">
+        <v>14.41158268750511</v>
+      </c>
+      <c r="C3">
+        <v>5.4642412365656139E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.25520911637242921</v>
+      </c>
+      <c r="E3">
+        <v>24.960228949071801</v>
+      </c>
+      <c r="F3">
+        <v>0.85342878263902</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0.7</v>
+      </c>
+      <c r="I3">
+        <v>0.83</v>
+      </c>
+      <c r="J3">
+        <v>0.83</v>
+      </c>
+      <c r="K3">
+        <v>0.91</v>
+      </c>
+      <c r="L3">
+        <v>0.95</v>
+      </c>
+      <c r="M3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>16.575502300553161</v>
+      </c>
+      <c r="C4">
+        <v>6.491888487440732E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.17581121517024639</v>
+      </c>
+      <c r="E4">
+        <v>28.70900042672918</v>
+      </c>
+      <c r="F4">
+        <v>0.84312359076024546</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>0.67</v>
+      </c>
+      <c r="I4">
+        <v>0.83</v>
+      </c>
+      <c r="J4">
+        <v>0.81</v>
+      </c>
+      <c r="K4">
+        <v>0.94</v>
+      </c>
+      <c r="L4">
+        <v>0.94</v>
+      </c>
+      <c r="M4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>13.254291465565471</v>
+      </c>
+      <c r="C5">
+        <v>5.3488728967471852E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.19930109843189819</v>
+      </c>
+      <c r="E5">
+        <v>22.956178793312311</v>
+      </c>
+      <c r="F5">
+        <v>0.87267187598281726</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>0.64</v>
+      </c>
+      <c r="I5">
+        <v>0.74</v>
+      </c>
+      <c r="J5">
         <v>0.76</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K5">
+        <v>0.93</v>
+      </c>
+      <c r="L5">
+        <v>0.94</v>
+      </c>
+      <c r="M5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>13.05715425634577</v>
+      </c>
+      <c r="C6">
+        <v>4.2411016930013111E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.15212420945670849</v>
+      </c>
+      <c r="E6">
+        <v>22.61510316917801</v>
+      </c>
+      <c r="F6">
+        <v>0.91751435898597589</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>0.72</v>
+      </c>
+      <c r="I6">
+        <v>0.86</v>
+      </c>
+      <c r="J6">
+        <v>0.86</v>
+      </c>
+      <c r="K6">
+        <v>0.98</v>
+      </c>
+      <c r="L6">
         <v>0.97</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.96</v>
+      <c r="M6">
+        <v>0.98</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>14.41158268750511</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05464241236565614</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2552091163724292</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24.9602289490718</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.85342878263902</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="n">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>37.529532472457532</v>
+      </c>
+      <c r="C7">
+        <v>9.4960211362839164E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.34546652110305148</v>
+      </c>
+      <c r="E7">
+        <v>65.002069645856594</v>
+      </c>
+      <c r="F7">
+        <v>0.52151126063045761</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0.71</v>
+      </c>
+      <c r="I7">
+        <v>0.77</v>
+      </c>
+      <c r="J7">
         <v>0.7</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16.57550230055316</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06491888487440732</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1758112151702464</v>
-      </c>
-      <c r="E4" t="n">
-        <v>28.70900042672918</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8431235907602455</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="n">
-        <v>13.25429146556547</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05348872896747185</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1993010984318982</v>
-      </c>
-      <c r="E5" t="n">
-        <v>22.95617879331231</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8726718759828173</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="K7">
         <v>0.93</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.05715425634577</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.04241101693001311</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1521242094567085</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22.61510316917801</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9175143589859759</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="n">
-        <v>37.52953247245753</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09496021136283916</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3454665211030515</v>
-      </c>
-      <c r="E7" t="n">
-        <v>65.00206964585659</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5215112606304576</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.99</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>